--- a/permit/doc/国土字段.xlsx
+++ b/permit/doc/国土字段.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="1680" windowWidth="19440" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="2385" yWindow="1710" windowWidth="19440" windowHeight="15570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>佛山市禅城区科润路南北、佛山一环以东、东平水道以西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>土地挂牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +54,6 @@
   </si>
   <si>
     <t>TD2015(CC)WG008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市禅城区科润路南北、佛山一环以东、东平水道以西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G4"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -502,49 +502,49 @@
     <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C3" s="1">
         <v>205683.81</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E3" s="1">
         <v>800000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
